--- a/data/Deans Commendation List.xlsx
+++ b/data/Deans Commendation List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dean's List\Dean's List\Fall 21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\quann\Desktop_D\Web intern\xlsx_to_html\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE96B93-DFC0-449C-AF1D-8B00BCA36764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="1665" yWindow="720" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Website" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="897">
   <si>
     <t>Student Last</t>
   </si>
@@ -2720,7 +2721,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2820,7 +2821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2845,10 +2846,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3132,11 +3129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D457"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D399" sqref="D399"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,29 +3144,29 @@
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4808,29 +4805,29 @@
       <c r="C125" s="9"/>
       <c r="D125" s="10"/>
     </row>
-    <row r="126" spans="1:4" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>302</v>
+      </c>
+      <c r="B126" t="s">
+        <v>303</v>
+      </c>
+      <c r="C126" t="s">
+        <v>304</v>
+      </c>
+      <c r="D126" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B127" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C127" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D127" t="s">
         <v>305</v>
@@ -4838,41 +4835,41 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B128" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C128" t="s">
-        <v>308</v>
-      </c>
-      <c r="D128" t="s">
-        <v>305</v>
+        <v>311</v>
+      </c>
+      <c r="D128" s="11">
+        <v>2232</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B129" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
-      </c>
-      <c r="D129" s="13">
-        <v>2232</v>
+        <v>314</v>
+      </c>
+      <c r="D129" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C130" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D130" t="s">
         <v>305</v>
@@ -4880,13 +4877,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B131" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C131" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="D131" t="s">
         <v>305</v>
@@ -4894,24 +4891,24 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B132" t="s">
         <v>319</v>
       </c>
-      <c r="C132" t="s">
-        <v>202</v>
-      </c>
       <c r="D132" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B133" t="s">
-        <v>319</v>
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>322</v>
       </c>
       <c r="D133" t="s">
         <v>305</v>
@@ -4919,13 +4916,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
         <v>305</v>
@@ -4933,13 +4930,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B135" t="s">
-        <v>324</v>
-      </c>
-      <c r="C135" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D135" t="s">
         <v>305</v>
@@ -4947,10 +4941,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B136" t="s">
-        <v>73</v>
+        <v>327</v>
+      </c>
+      <c r="C136" t="s">
+        <v>328</v>
       </c>
       <c r="D136" t="s">
         <v>305</v>
@@ -4958,13 +4955,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B137" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C137" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D137" t="s">
         <v>305</v>
@@ -4972,13 +4969,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B138" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="C138" t="s">
-        <v>331</v>
+        <v>92</v>
       </c>
       <c r="D138" t="s">
         <v>305</v>
@@ -4986,13 +4983,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
-      </c>
-      <c r="C139" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
         <v>305</v>
@@ -5000,10 +4994,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>336</v>
+      </c>
+      <c r="C140" t="s">
+        <v>251</v>
       </c>
       <c r="D140" t="s">
         <v>305</v>
@@ -5011,13 +5008,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="D141" t="s">
         <v>305</v>
@@ -5028,10 +5025,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C142" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D142" t="s">
         <v>305</v>
@@ -5039,13 +5036,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="C143" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
       <c r="D143" t="s">
         <v>305</v>
@@ -5053,13 +5050,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
+        <v>100</v>
       </c>
       <c r="C144" t="s">
-        <v>339</v>
+        <v>25</v>
       </c>
       <c r="D144" t="s">
         <v>305</v>
@@ -5067,13 +5064,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B145" t="s">
-        <v>100</v>
-      </c>
-      <c r="C145" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="D145" t="s">
         <v>305</v>
@@ -5081,10 +5075,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B146" t="s">
-        <v>342</v>
+        <v>189</v>
       </c>
       <c r="D146" t="s">
         <v>305</v>
@@ -5092,10 +5086,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B147" t="s">
-        <v>189</v>
+        <v>103</v>
+      </c>
+      <c r="C147" t="s">
+        <v>345</v>
       </c>
       <c r="D147" t="s">
         <v>305</v>
@@ -5103,13 +5100,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B148" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C148" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D148" t="s">
         <v>305</v>
@@ -5117,13 +5114,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="C149" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D149" t="s">
         <v>305</v>
@@ -5131,13 +5128,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
-      </c>
-      <c r="C150" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D150" t="s">
         <v>305</v>
@@ -5145,10 +5139,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B151" t="s">
-        <v>352</v>
+        <v>127</v>
+      </c>
+      <c r="C151" t="s">
+        <v>354</v>
       </c>
       <c r="D151" t="s">
         <v>305</v>
@@ -5156,13 +5153,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="C152" t="s">
-        <v>354</v>
+        <v>88</v>
       </c>
       <c r="D152" t="s">
         <v>305</v>
@@ -5170,13 +5167,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>141</v>
       </c>
       <c r="C153" t="s">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="D153" t="s">
         <v>305</v>
@@ -5184,13 +5181,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B154" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="D154" t="s">
         <v>305</v>
@@ -5198,30 +5195,30 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>359</v>
+        <v>514</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>515</v>
       </c>
       <c r="C155" t="s">
-        <v>143</v>
+        <v>446</v>
       </c>
       <c r="D155" t="s">
-        <v>305</v>
+        <v>516</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>514</v>
+        <v>360</v>
       </c>
       <c r="B156" t="s">
-        <v>515</v>
+        <v>361</v>
       </c>
       <c r="C156" t="s">
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="D156" t="s">
-        <v>516</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,10 +5226,10 @@
         <v>360</v>
       </c>
       <c r="B157" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C157" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D157" t="s">
         <v>305</v>
@@ -5240,13 +5237,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B158" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C158" t="s">
-        <v>364</v>
+        <v>246</v>
       </c>
       <c r="D158" t="s">
         <v>305</v>
@@ -5254,13 +5251,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B159" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C159" t="s">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="D159" t="s">
         <v>305</v>
@@ -5268,13 +5265,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B160" t="s">
-        <v>368</v>
-      </c>
-      <c r="C160" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D160" t="s">
         <v>305</v>
@@ -5282,10 +5276,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B161" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D161" t="s">
         <v>305</v>
@@ -5293,10 +5287,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B162" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D162" t="s">
         <v>305</v>
@@ -5304,10 +5298,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B163" t="s">
-        <v>375</v>
+        <v>377</v>
+      </c>
+      <c r="C163" t="s">
+        <v>378</v>
       </c>
       <c r="D163" t="s">
         <v>305</v>
@@ -5315,13 +5312,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B164" t="s">
-        <v>377</v>
+        <v>90</v>
       </c>
       <c r="C164" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D164" t="s">
         <v>305</v>
@@ -5329,13 +5326,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B165" t="s">
-        <v>90</v>
+        <v>381</v>
       </c>
       <c r="C165" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D165" t="s">
         <v>305</v>
@@ -5343,13 +5340,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B166" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C166" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D166" t="s">
         <v>305</v>
@@ -5357,13 +5354,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>383</v>
+        <v>54</v>
       </c>
       <c r="B167" t="s">
-        <v>384</v>
-      </c>
-      <c r="C167" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D167" t="s">
         <v>305</v>
@@ -5371,10 +5365,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>54</v>
+        <v>387</v>
       </c>
       <c r="B168" t="s">
-        <v>386</v>
+        <v>388</v>
+      </c>
+      <c r="C168" t="s">
+        <v>202</v>
       </c>
       <c r="D168" t="s">
         <v>305</v>
@@ -5382,13 +5379,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B169" t="s">
-        <v>388</v>
-      </c>
-      <c r="C169" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="D169" t="s">
         <v>305</v>
@@ -5396,10 +5390,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B170" t="s">
-        <v>390</v>
+        <v>392</v>
+      </c>
+      <c r="C170" t="s">
+        <v>393</v>
       </c>
       <c r="D170" t="s">
         <v>305</v>
@@ -5407,13 +5404,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B171" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C171" t="s">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="D171" t="s">
         <v>305</v>
@@ -5421,41 +5418,41 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B172" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C172" t="s">
-        <v>143</v>
-      </c>
-      <c r="D172" t="s">
-        <v>305</v>
+        <v>398</v>
+      </c>
+      <c r="D172" s="11">
+        <v>2232</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B173" t="s">
-        <v>397</v>
+        <v>127</v>
       </c>
       <c r="C173" t="s">
-        <v>398</v>
-      </c>
-      <c r="D173" s="13">
-        <v>2232</v>
+        <v>400</v>
+      </c>
+      <c r="D173" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B174" t="s">
-        <v>127</v>
+        <v>402</v>
       </c>
       <c r="C174" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D174" t="s">
         <v>305</v>
@@ -5466,10 +5463,10 @@
         <v>401</v>
       </c>
       <c r="B175" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C175" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="D175" t="s">
         <v>305</v>
@@ -5477,13 +5474,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B176" t="s">
-        <v>404</v>
+        <v>217</v>
       </c>
       <c r="C176" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="D176" t="s">
         <v>305</v>
@@ -5491,13 +5488,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B177" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="C177" t="s">
-        <v>406</v>
+        <v>103</v>
       </c>
       <c r="D177" t="s">
         <v>305</v>
@@ -5505,13 +5502,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B178" t="s">
-        <v>76</v>
-      </c>
-      <c r="C178" t="s">
-        <v>103</v>
+        <v>409</v>
       </c>
       <c r="D178" t="s">
         <v>305</v>
@@ -5519,10 +5513,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B179" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="C179" t="s">
+        <v>412</v>
       </c>
       <c r="D179" t="s">
         <v>305</v>
@@ -5530,13 +5527,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B180" t="s">
-        <v>411</v>
+        <v>30</v>
       </c>
       <c r="C180" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D180" t="s">
         <v>305</v>
@@ -5544,13 +5541,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>413</v>
+        <v>175</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
-      </c>
-      <c r="C181" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D181" t="s">
         <v>305</v>
@@ -5558,10 +5552,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>175</v>
+        <v>417</v>
       </c>
       <c r="B182" t="s">
-        <v>416</v>
+        <v>90</v>
+      </c>
+      <c r="C182" t="s">
+        <v>418</v>
       </c>
       <c r="D182" t="s">
         <v>305</v>
@@ -5569,13 +5566,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B183" t="s">
-        <v>90</v>
-      </c>
-      <c r="C183" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D183" t="s">
         <v>305</v>
@@ -5583,10 +5577,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B184" t="s">
-        <v>420</v>
+        <v>51</v>
+      </c>
+      <c r="C184" t="s">
+        <v>422</v>
       </c>
       <c r="D184" t="s">
         <v>305</v>
@@ -5594,13 +5591,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>424</v>
       </c>
       <c r="C185" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D185" t="s">
         <v>305</v>
@@ -5608,13 +5605,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B186" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C186" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="D186" t="s">
         <v>305</v>
@@ -5622,13 +5619,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B187" t="s">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="C187" t="s">
-        <v>395</v>
+        <v>88</v>
       </c>
       <c r="D187" t="s">
         <v>305</v>
@@ -5636,13 +5633,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B188" t="s">
-        <v>73</v>
+        <v>430</v>
       </c>
       <c r="C188" t="s">
-        <v>88</v>
+        <v>431</v>
       </c>
       <c r="D188" t="s">
         <v>305</v>
@@ -5650,13 +5647,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B189" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C189" t="s">
-        <v>431</v>
+        <v>73</v>
       </c>
       <c r="D189" t="s">
         <v>305</v>
@@ -5664,13 +5661,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B190" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C190" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D190" t="s">
         <v>305</v>
@@ -5678,13 +5675,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B191" t="s">
-        <v>436</v>
+        <v>62</v>
       </c>
       <c r="C191" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="D191" t="s">
         <v>305</v>
@@ -5692,13 +5689,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>439</v>
       </c>
       <c r="C192" t="s">
-        <v>109</v>
+        <v>436</v>
       </c>
       <c r="D192" t="s">
         <v>305</v>
@@ -5706,13 +5703,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B193" t="s">
-        <v>439</v>
-      </c>
-      <c r="C193" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D193" t="s">
         <v>305</v>
@@ -5720,10 +5714,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B194" t="s">
-        <v>441</v>
+        <v>443</v>
+      </c>
+      <c r="C194" t="s">
+        <v>191</v>
       </c>
       <c r="D194" t="s">
         <v>305</v>
@@ -5731,13 +5728,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B195" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C195" t="s">
-        <v>191</v>
+        <v>446</v>
       </c>
       <c r="D195" t="s">
         <v>305</v>
@@ -5745,13 +5742,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B196" t="s">
-        <v>445</v>
-      </c>
-      <c r="C196" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D196" t="s">
         <v>305</v>
@@ -5759,10 +5753,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B197" t="s">
-        <v>449</v>
+        <v>452</v>
+      </c>
+      <c r="C197" t="s">
+        <v>246</v>
       </c>
       <c r="D197" t="s">
         <v>305</v>
@@ -5770,13 +5767,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B198" t="s">
-        <v>452</v>
-      </c>
-      <c r="C198" t="s">
-        <v>246</v>
+        <v>430</v>
       </c>
       <c r="D198" t="s">
         <v>305</v>
@@ -5784,10 +5778,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B199" t="s">
-        <v>430</v>
+        <v>455</v>
+      </c>
+      <c r="C199" t="s">
+        <v>456</v>
       </c>
       <c r="D199" t="s">
         <v>305</v>
@@ -5795,13 +5792,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B200" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C200" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D200" t="s">
         <v>305</v>
@@ -5809,13 +5806,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B201" t="s">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="C201" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D201" t="s">
         <v>305</v>
@@ -5823,13 +5820,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B202" t="s">
-        <v>369</v>
+        <v>54</v>
       </c>
       <c r="C202" t="s">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="D202" t="s">
         <v>305</v>
@@ -5837,13 +5834,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B203" t="s">
-        <v>54</v>
-      </c>
-      <c r="C203" t="s">
-        <v>347</v>
+        <v>71</v>
       </c>
       <c r="D203" t="s">
         <v>305</v>
@@ -5851,10 +5845,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B204" t="s">
-        <v>71</v>
+        <v>194</v>
+      </c>
+      <c r="C204" t="s">
+        <v>465</v>
       </c>
       <c r="D204" t="s">
         <v>305</v>
@@ -5862,13 +5859,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B205" t="s">
-        <v>194</v>
+        <v>467</v>
       </c>
       <c r="C205" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D205" t="s">
         <v>305</v>
@@ -5876,13 +5873,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B206" t="s">
-        <v>467</v>
+        <v>100</v>
       </c>
       <c r="C206" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D206" t="s">
         <v>305</v>
@@ -5890,13 +5887,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B207" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C207" t="s">
-        <v>470</v>
+        <v>35</v>
       </c>
       <c r="D207" t="s">
         <v>305</v>
@@ -5904,13 +5901,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B208" t="s">
-        <v>22</v>
-      </c>
-      <c r="C208" t="s">
-        <v>35</v>
+        <v>473</v>
       </c>
       <c r="D208" t="s">
         <v>305</v>
@@ -5918,10 +5912,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="B209" t="s">
-        <v>473</v>
+        <v>76</v>
+      </c>
+      <c r="C209" t="s">
+        <v>73</v>
       </c>
       <c r="D209" t="s">
         <v>305</v>
@@ -5929,13 +5926,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="B210" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C210" t="s">
-        <v>73</v>
+        <v>475</v>
       </c>
       <c r="D210" t="s">
         <v>305</v>
@@ -5943,13 +5940,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B211" t="s">
-        <v>37</v>
-      </c>
-      <c r="C211" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D211" t="s">
         <v>305</v>
@@ -5957,10 +5951,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B212" t="s">
-        <v>477</v>
+        <v>480</v>
+      </c>
+      <c r="C212" t="s">
+        <v>92</v>
       </c>
       <c r="D212" t="s">
         <v>305</v>
@@ -5968,13 +5965,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B213" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C213" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="D213" t="s">
         <v>305</v>
@@ -5982,13 +5979,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B214" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C214" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="D214" t="s">
         <v>305</v>
@@ -5996,13 +5993,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B215" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="C215" t="s">
-        <v>246</v>
+        <v>486</v>
       </c>
       <c r="D215" t="s">
         <v>305</v>
@@ -6010,13 +6007,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B216" t="s">
-        <v>447</v>
+        <v>71</v>
       </c>
       <c r="C216" t="s">
-        <v>486</v>
+        <v>116</v>
       </c>
       <c r="D216" t="s">
         <v>305</v>
@@ -6024,13 +6021,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
       <c r="B217" t="s">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="C217" t="s">
-        <v>116</v>
+        <v>488</v>
       </c>
       <c r="D217" t="s">
         <v>305</v>
@@ -6038,13 +6035,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="B218" t="s">
-        <v>284</v>
+        <v>490</v>
       </c>
       <c r="C218" t="s">
-        <v>488</v>
+        <v>88</v>
       </c>
       <c r="D218" t="s">
         <v>305</v>
@@ -6052,13 +6049,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B219" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C219" t="s">
-        <v>88</v>
+        <v>493</v>
       </c>
       <c r="D219" t="s">
         <v>305</v>
@@ -6066,13 +6063,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B220" t="s">
-        <v>492</v>
+        <v>49</v>
       </c>
       <c r="C220" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D220" t="s">
         <v>305</v>
@@ -6080,13 +6077,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="B221" t="s">
-        <v>49</v>
+        <v>496</v>
       </c>
       <c r="C221" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D221" t="s">
         <v>305</v>
@@ -6094,13 +6091,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="B222" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C222" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D222" t="s">
         <v>305</v>
@@ -6108,13 +6105,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B223" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C223" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D223" t="s">
         <v>305</v>
@@ -6122,13 +6119,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B224" t="s">
-        <v>502</v>
-      </c>
-      <c r="C224" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D224" t="s">
         <v>305</v>
@@ -6136,10 +6130,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B225" t="s">
-        <v>505</v>
+        <v>507</v>
+      </c>
+      <c r="C225" t="s">
+        <v>92</v>
       </c>
       <c r="D225" t="s">
         <v>305</v>
@@ -6147,13 +6144,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B226" t="s">
-        <v>507</v>
+        <v>88</v>
       </c>
       <c r="C226" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D226" t="s">
         <v>305</v>
@@ -6161,13 +6158,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B227" t="s">
-        <v>88</v>
+        <v>510</v>
       </c>
       <c r="C227" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="D227" t="s">
         <v>305</v>
@@ -6175,63 +6172,57 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B228" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C228" t="s">
-        <v>144</v>
+        <v>513</v>
       </c>
       <c r="D228" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>511</v>
-      </c>
-      <c r="B229" t="s">
-        <v>512</v>
-      </c>
-      <c r="C229" t="s">
-        <v>513</v>
-      </c>
-      <c r="D229" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="8" t="s">
+    <row r="230" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="10"/>
-    </row>
-    <row r="232" spans="1:4" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B232" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="10"/>
+    </row>
+    <row r="231" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>517</v>
+      </c>
+      <c r="B231" t="s">
+        <v>518</v>
+      </c>
+      <c r="C231" t="s">
+        <v>519</v>
+      </c>
+      <c r="D231" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>521</v>
+      </c>
+      <c r="B232" t="s">
+        <v>522</v>
+      </c>
+      <c r="D232" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B233" t="s">
-        <v>518</v>
-      </c>
-      <c r="C233" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D233" t="s">
         <v>520</v>
@@ -6239,10 +6230,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>521</v>
+        <v>38</v>
       </c>
       <c r="B234" t="s">
-        <v>522</v>
+        <v>467</v>
+      </c>
+      <c r="C234" t="s">
+        <v>525</v>
       </c>
       <c r="D234" t="s">
         <v>520</v>
@@ -6250,10 +6244,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B235" t="s">
-        <v>524</v>
+        <v>490</v>
+      </c>
+      <c r="C235" t="s">
+        <v>16</v>
       </c>
       <c r="D235" t="s">
         <v>520</v>
@@ -6261,13 +6258,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>38</v>
+        <v>527</v>
       </c>
       <c r="B236" t="s">
-        <v>467</v>
-      </c>
-      <c r="C236" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D236" t="s">
         <v>520</v>
@@ -6275,13 +6269,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B237" t="s">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="C237" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D237" t="s">
         <v>520</v>
@@ -6289,10 +6283,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B238" t="s">
-        <v>528</v>
+        <v>499</v>
+      </c>
+      <c r="C238" t="s">
+        <v>88</v>
       </c>
       <c r="D238" t="s">
         <v>520</v>
@@ -6300,13 +6297,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>529</v>
+        <v>52</v>
       </c>
       <c r="B239" t="s">
-        <v>530</v>
+        <v>386</v>
       </c>
       <c r="C239" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="D239" t="s">
         <v>520</v>
@@ -6314,13 +6311,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B240" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="C240" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D240" t="s">
         <v>520</v>
@@ -6328,13 +6325,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>52</v>
+        <v>534</v>
       </c>
       <c r="B241" t="s">
-        <v>386</v>
+        <v>535</v>
       </c>
       <c r="C241" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="D241" t="s">
         <v>520</v>
@@ -6342,13 +6339,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B242" t="s">
-        <v>533</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="D242" t="s">
         <v>520</v>
@@ -6356,13 +6353,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B243" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C243" t="s">
-        <v>143</v>
+        <v>539</v>
       </c>
       <c r="D243" t="s">
         <v>520</v>
@@ -6370,13 +6367,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>540</v>
       </c>
       <c r="C244" t="s">
-        <v>284</v>
+        <v>541</v>
       </c>
       <c r="D244" t="s">
         <v>520</v>
@@ -6384,13 +6381,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B245" t="s">
-        <v>538</v>
+        <v>88</v>
       </c>
       <c r="C245" t="s">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="D245" t="s">
         <v>520</v>
@@ -6398,13 +6395,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="B246" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C246" t="s">
-        <v>541</v>
+        <v>456</v>
       </c>
       <c r="D246" t="s">
         <v>520</v>
@@ -6412,13 +6409,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B247" t="s">
-        <v>88</v>
+        <v>546</v>
       </c>
       <c r="C247" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D247" t="s">
         <v>520</v>
@@ -6426,13 +6423,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B248" t="s">
-        <v>544</v>
+        <v>282</v>
       </c>
       <c r="C248" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="D248" t="s">
         <v>520</v>
@@ -6440,13 +6437,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B249" t="s">
-        <v>546</v>
-      </c>
-      <c r="C249" t="s">
-        <v>202</v>
+        <v>550</v>
       </c>
       <c r="D249" t="s">
         <v>520</v>
@@ -6454,13 +6448,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>547</v>
+        <v>203</v>
       </c>
       <c r="B250" t="s">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="C250" t="s">
-        <v>548</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
         <v>520</v>
@@ -6468,10 +6462,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B251" t="s">
-        <v>550</v>
+        <v>378</v>
+      </c>
+      <c r="C251" t="s">
+        <v>552</v>
       </c>
       <c r="D251" t="s">
         <v>520</v>
@@ -6479,13 +6476,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>203</v>
+        <v>553</v>
       </c>
       <c r="B252" t="s">
-        <v>73</v>
+        <v>554</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D252" t="s">
         <v>520</v>
@@ -6493,13 +6490,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B253" t="s">
-        <v>378</v>
+        <v>112</v>
       </c>
       <c r="C253" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D253" t="s">
         <v>520</v>
@@ -6507,13 +6504,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B254" t="s">
-        <v>554</v>
+        <v>41</v>
       </c>
       <c r="C254" t="s">
-        <v>92</v>
+        <v>558</v>
       </c>
       <c r="D254" t="s">
         <v>520</v>
@@ -6521,13 +6518,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B255" t="s">
-        <v>112</v>
+        <v>502</v>
       </c>
       <c r="C255" t="s">
-        <v>556</v>
+        <v>54</v>
       </c>
       <c r="D255" t="s">
         <v>520</v>
@@ -6535,13 +6532,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B256" t="s">
-        <v>41</v>
-      </c>
-      <c r="C256" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D256" t="s">
         <v>520</v>
@@ -6549,13 +6543,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B257" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C257" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D257" t="s">
         <v>520</v>
@@ -6563,10 +6557,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B258" t="s">
-        <v>561</v>
+        <v>143</v>
+      </c>
+      <c r="C258" t="s">
+        <v>564</v>
       </c>
       <c r="D258" t="s">
         <v>520</v>
@@ -6574,13 +6571,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B259" t="s">
-        <v>490</v>
+        <v>40</v>
       </c>
       <c r="C259" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="D259" t="s">
         <v>520</v>
@@ -6588,13 +6585,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B260" t="s">
-        <v>143</v>
+        <v>567</v>
       </c>
       <c r="C260" t="s">
-        <v>564</v>
+        <v>121</v>
       </c>
       <c r="D260" t="s">
         <v>520</v>
@@ -6602,13 +6599,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B261" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="C261" t="s">
-        <v>31</v>
+        <v>563</v>
       </c>
       <c r="D261" t="s">
         <v>520</v>
@@ -6616,13 +6613,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B262" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C262" t="s">
-        <v>121</v>
+        <v>571</v>
       </c>
       <c r="D262" t="s">
         <v>520</v>
@@ -6630,13 +6627,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B263" t="s">
-        <v>172</v>
+        <v>573</v>
       </c>
       <c r="C263" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="D263" t="s">
         <v>520</v>
@@ -6644,13 +6641,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B264" t="s">
-        <v>570</v>
+        <v>284</v>
       </c>
       <c r="C264" t="s">
-        <v>571</v>
+        <v>382</v>
       </c>
       <c r="D264" t="s">
         <v>520</v>
@@ -6658,13 +6655,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B265" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C265" t="s">
-        <v>574</v>
+        <v>112</v>
       </c>
       <c r="D265" t="s">
         <v>520</v>
@@ -6672,13 +6669,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B266" t="s">
-        <v>284</v>
+        <v>577</v>
       </c>
       <c r="C266" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="D266" t="s">
         <v>520</v>
@@ -6686,13 +6683,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B267" t="s">
-        <v>577</v>
+        <v>121</v>
       </c>
       <c r="C267" t="s">
-        <v>112</v>
+        <v>580</v>
       </c>
       <c r="D267" t="s">
         <v>520</v>
@@ -6700,13 +6697,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B268" t="s">
-        <v>577</v>
+        <v>319</v>
       </c>
       <c r="C268" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D268" t="s">
         <v>520</v>
@@ -6714,13 +6711,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B269" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C269" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D269" t="s">
         <v>520</v>
@@ -6728,13 +6725,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B270" t="s">
-        <v>319</v>
+        <v>131</v>
       </c>
       <c r="C270" t="s">
-        <v>85</v>
+        <v>584</v>
       </c>
       <c r="D270" t="s">
         <v>520</v>
@@ -6742,13 +6739,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B271" t="s">
-        <v>73</v>
+        <v>586</v>
       </c>
       <c r="C271" t="s">
-        <v>583</v>
+        <v>25</v>
       </c>
       <c r="D271" t="s">
         <v>520</v>
@@ -6756,13 +6753,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>582</v>
+        <v>376</v>
       </c>
       <c r="B272" t="s">
-        <v>131</v>
+        <v>587</v>
       </c>
       <c r="C272" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D272" t="s">
         <v>520</v>
@@ -6770,13 +6767,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B273" t="s">
-        <v>586</v>
-      </c>
-      <c r="C273" t="s">
-        <v>25</v>
+        <v>590</v>
       </c>
       <c r="D273" t="s">
         <v>520</v>
@@ -6784,13 +6778,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
       <c r="B274" t="s">
-        <v>587</v>
+        <v>541</v>
       </c>
       <c r="C274" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D274" t="s">
         <v>520</v>
@@ -6798,10 +6792,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>589</v>
+        <v>114</v>
       </c>
       <c r="B275" t="s">
-        <v>590</v>
+        <v>116</v>
+      </c>
+      <c r="C275" t="s">
+        <v>593</v>
       </c>
       <c r="D275" t="s">
         <v>520</v>
@@ -6809,13 +6806,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B276" t="s">
-        <v>541</v>
+        <v>121</v>
       </c>
       <c r="C276" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D276" t="s">
         <v>520</v>
@@ -6823,13 +6820,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="B277" t="s">
-        <v>116</v>
+        <v>597</v>
       </c>
       <c r="C277" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D277" t="s">
         <v>520</v>
@@ -6837,13 +6834,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B278" t="s">
-        <v>121</v>
-      </c>
-      <c r="C278" t="s">
-        <v>595</v>
+        <v>12</v>
       </c>
       <c r="D278" t="s">
         <v>520</v>
@@ -6851,13 +6845,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B279" t="s">
-        <v>597</v>
-      </c>
-      <c r="C279" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D279" t="s">
         <v>520</v>
@@ -6865,10 +6856,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>155</v>
+      </c>
+      <c r="C280" t="s">
+        <v>603</v>
       </c>
       <c r="D280" t="s">
         <v>520</v>
@@ -6876,10 +6870,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B281" t="s">
-        <v>601</v>
+        <v>605</v>
+      </c>
+      <c r="C281" t="s">
+        <v>381</v>
       </c>
       <c r="D281" t="s">
         <v>520</v>
@@ -6887,13 +6884,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B282" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C282" t="s">
-        <v>603</v>
+        <v>204</v>
       </c>
       <c r="D282" t="s">
         <v>520</v>
@@ -6901,13 +6898,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B283" t="s">
-        <v>605</v>
-      </c>
-      <c r="C283" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="D283" t="s">
         <v>520</v>
@@ -6915,13 +6909,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B284" t="s">
-        <v>25</v>
+        <v>609</v>
       </c>
       <c r="C284" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="D284" t="s">
         <v>520</v>
@@ -6929,10 +6923,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>607</v>
+        <v>497</v>
       </c>
       <c r="B285" t="s">
-        <v>418</v>
+        <v>131</v>
+      </c>
+      <c r="C285" t="s">
+        <v>610</v>
       </c>
       <c r="D285" t="s">
         <v>520</v>
@@ -6940,13 +6937,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B286" t="s">
-        <v>609</v>
+        <v>436</v>
       </c>
       <c r="C286" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="D286" t="s">
         <v>520</v>
@@ -6954,13 +6951,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>497</v>
+        <v>612</v>
       </c>
       <c r="B287" t="s">
-        <v>131</v>
+        <v>613</v>
       </c>
       <c r="C287" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D287" t="s">
         <v>520</v>
@@ -6968,13 +6965,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B288" t="s">
-        <v>436</v>
+        <v>616</v>
       </c>
       <c r="C288" t="s">
-        <v>281</v>
+        <v>617</v>
       </c>
       <c r="D288" t="s">
         <v>520</v>
@@ -6982,13 +6979,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B289" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="C289" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D289" t="s">
         <v>520</v>
@@ -6996,13 +6993,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B290" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C290" t="s">
-        <v>617</v>
+        <v>143</v>
       </c>
       <c r="D290" t="s">
         <v>520</v>
@@ -7010,13 +7007,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B291" t="s">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="C291" t="s">
-        <v>619</v>
+        <v>41</v>
       </c>
       <c r="D291" t="s">
         <v>520</v>
@@ -7024,13 +7021,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B292" t="s">
-        <v>621</v>
-      </c>
-      <c r="C292" t="s">
-        <v>143</v>
+        <v>624</v>
       </c>
       <c r="D292" t="s">
         <v>520</v>
@@ -7038,13 +7032,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B293" t="s">
-        <v>204</v>
+        <v>626</v>
       </c>
       <c r="C293" t="s">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="D293" t="s">
         <v>520</v>
@@ -7052,10 +7046,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B294" t="s">
-        <v>624</v>
+        <v>628</v>
+      </c>
+      <c r="C294" t="s">
+        <v>629</v>
       </c>
       <c r="D294" t="s">
         <v>520</v>
@@ -7063,13 +7060,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B295" t="s">
-        <v>626</v>
+        <v>334</v>
       </c>
       <c r="C295" t="s">
-        <v>347</v>
+        <v>631</v>
       </c>
       <c r="D295" t="s">
         <v>520</v>
@@ -7077,13 +7074,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B296" t="s">
-        <v>628</v>
+        <v>319</v>
       </c>
       <c r="C296" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D296" t="s">
         <v>520</v>
@@ -7091,13 +7088,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B297" t="s">
-        <v>334</v>
+        <v>635</v>
       </c>
       <c r="C297" t="s">
-        <v>631</v>
+        <v>54</v>
       </c>
       <c r="D297" t="s">
         <v>520</v>
@@ -7105,13 +7102,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B298" t="s">
-        <v>319</v>
+        <v>637</v>
       </c>
       <c r="C298" t="s">
-        <v>633</v>
+        <v>8</v>
       </c>
       <c r="D298" t="s">
         <v>520</v>
@@ -7119,13 +7116,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B299" t="s">
-        <v>635</v>
+        <v>204</v>
       </c>
       <c r="C299" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D299" t="s">
         <v>520</v>
@@ -7133,13 +7130,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>636</v>
+        <v>421</v>
       </c>
       <c r="B300" t="s">
-        <v>637</v>
+        <v>5</v>
       </c>
       <c r="C300" t="s">
-        <v>8</v>
+        <v>639</v>
       </c>
       <c r="D300" t="s">
         <v>520</v>
@@ -7147,13 +7144,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B301" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C301" t="s">
-        <v>5</v>
+        <v>641</v>
       </c>
       <c r="D301" t="s">
         <v>520</v>
@@ -7161,13 +7158,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>421</v>
+        <v>642</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="C302" t="s">
-        <v>639</v>
+        <v>92</v>
       </c>
       <c r="D302" t="s">
         <v>520</v>
@@ -7175,13 +7172,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B303" t="s">
+        <v>424</v>
+      </c>
+      <c r="C303" t="s">
         <v>27</v>
-      </c>
-      <c r="C303" t="s">
-        <v>641</v>
       </c>
       <c r="D303" t="s">
         <v>520</v>
@@ -7189,13 +7186,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B304" t="s">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="C304" t="s">
-        <v>92</v>
+        <v>645</v>
       </c>
       <c r="D304" t="s">
         <v>520</v>
@@ -7203,13 +7200,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B305" t="s">
-        <v>424</v>
+        <v>204</v>
       </c>
       <c r="C305" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="D305" t="s">
         <v>520</v>
@@ -7217,13 +7214,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>644</v>
+        <v>432</v>
       </c>
       <c r="B306" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C306" t="s">
-        <v>645</v>
+        <v>209</v>
       </c>
       <c r="D306" t="s">
         <v>520</v>
@@ -7231,13 +7228,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>646</v>
+        <v>432</v>
       </c>
       <c r="B307" t="s">
-        <v>204</v>
+        <v>647</v>
       </c>
       <c r="C307" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D307" t="s">
         <v>520</v>
@@ -7245,13 +7242,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>432</v>
+        <v>648</v>
       </c>
       <c r="B308" t="s">
-        <v>57</v>
+        <v>649</v>
       </c>
       <c r="C308" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D308" t="s">
         <v>520</v>
@@ -7259,13 +7256,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B309" t="s">
-        <v>647</v>
+        <v>382</v>
       </c>
       <c r="C309" t="s">
-        <v>92</v>
+        <v>650</v>
       </c>
       <c r="D309" t="s">
         <v>520</v>
@@ -7273,13 +7270,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B310" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C310" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="D310" t="s">
         <v>520</v>
@@ -7287,13 +7284,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="B311" t="s">
-        <v>382</v>
+        <v>653</v>
       </c>
       <c r="C311" t="s">
-        <v>650</v>
+        <v>263</v>
       </c>
       <c r="D311" t="s">
         <v>520</v>
@@ -7301,13 +7298,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B312" t="s">
-        <v>652</v>
-      </c>
-      <c r="C312" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D312" t="s">
         <v>520</v>
@@ -7315,13 +7309,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>438</v>
+        <v>655</v>
       </c>
       <c r="B313" t="s">
-        <v>653</v>
+        <v>172</v>
       </c>
       <c r="C313" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="D313" t="s">
         <v>520</v>
@@ -7329,10 +7323,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B314" t="s">
-        <v>116</v>
+        <v>657</v>
+      </c>
+      <c r="C314" t="s">
+        <v>202</v>
       </c>
       <c r="D314" t="s">
         <v>520</v>
@@ -7340,13 +7337,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B315" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="C315" t="s">
-        <v>131</v>
+        <v>659</v>
       </c>
       <c r="D315" t="s">
         <v>520</v>
@@ -7354,13 +7351,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B316" t="s">
-        <v>657</v>
+        <v>157</v>
       </c>
       <c r="C316" t="s">
-        <v>202</v>
+        <v>661</v>
       </c>
       <c r="D316" t="s">
         <v>520</v>
@@ -7368,13 +7365,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B317" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="C317" t="s">
-        <v>659</v>
+        <v>395</v>
       </c>
       <c r="D317" t="s">
         <v>520</v>
@@ -7382,13 +7379,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B318" t="s">
-        <v>157</v>
+        <v>664</v>
       </c>
       <c r="C318" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D318" t="s">
         <v>520</v>
@@ -7396,13 +7393,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B319" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="C319" t="s">
-        <v>395</v>
+        <v>103</v>
       </c>
       <c r="D319" t="s">
         <v>520</v>
@@ -7410,13 +7407,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B320" t="s">
-        <v>664</v>
+        <v>73</v>
       </c>
       <c r="C320" t="s">
-        <v>665</v>
+        <v>382</v>
       </c>
       <c r="D320" t="s">
         <v>520</v>
@@ -7424,13 +7421,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B321" t="s">
-        <v>116</v>
+        <v>577</v>
       </c>
       <c r="C321" t="s">
-        <v>103</v>
+        <v>669</v>
       </c>
       <c r="D321" t="s">
         <v>520</v>
@@ -7438,13 +7435,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B322" t="s">
-        <v>73</v>
+        <v>671</v>
       </c>
       <c r="C322" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="D322" t="s">
         <v>520</v>
@@ -7452,13 +7449,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B323" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="C323" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D323" t="s">
         <v>520</v>
@@ -7466,13 +7463,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B324" t="s">
-        <v>671</v>
-      </c>
-      <c r="C324" t="s">
-        <v>246</v>
+        <v>676</v>
       </c>
       <c r="D324" t="s">
         <v>520</v>
@@ -7480,13 +7474,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B325" t="s">
-        <v>673</v>
+        <v>41</v>
       </c>
       <c r="C325" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D325" t="s">
         <v>520</v>
@@ -7494,10 +7488,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B326" t="s">
-        <v>676</v>
+        <v>282</v>
+      </c>
+      <c r="C326" t="s">
+        <v>680</v>
       </c>
       <c r="D326" t="s">
         <v>520</v>
@@ -7505,13 +7502,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B327" t="s">
-        <v>41</v>
+        <v>682</v>
       </c>
       <c r="C327" t="s">
-        <v>678</v>
+        <v>143</v>
       </c>
       <c r="D327" t="s">
         <v>520</v>
@@ -7519,13 +7516,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B328" t="s">
-        <v>282</v>
+        <v>684</v>
       </c>
       <c r="C328" t="s">
-        <v>680</v>
+        <v>86</v>
       </c>
       <c r="D328" t="s">
         <v>520</v>
@@ -7533,13 +7530,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B329" t="s">
-        <v>682</v>
+        <v>121</v>
       </c>
       <c r="C329" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="D329" t="s">
         <v>520</v>
@@ -7547,13 +7544,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B330" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C330" t="s">
-        <v>86</v>
+        <v>418</v>
       </c>
       <c r="D330" t="s">
         <v>520</v>
@@ -7561,13 +7558,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B331" t="s">
-        <v>121</v>
+        <v>689</v>
       </c>
       <c r="C331" t="s">
-        <v>217</v>
+        <v>690</v>
       </c>
       <c r="D331" t="s">
         <v>520</v>
@@ -7575,13 +7572,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B332" t="s">
-        <v>687</v>
-      </c>
-      <c r="C332" t="s">
-        <v>418</v>
+        <v>605</v>
       </c>
       <c r="D332" t="s">
         <v>520</v>
@@ -7589,13 +7583,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B333" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C333" t="s">
-        <v>690</v>
+        <v>73</v>
       </c>
       <c r="D333" t="s">
         <v>520</v>
@@ -7603,10 +7597,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B334" t="s">
-        <v>605</v>
+        <v>12</v>
+      </c>
+      <c r="C334" t="s">
+        <v>143</v>
       </c>
       <c r="D334" t="s">
         <v>520</v>
@@ -7614,13 +7611,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B335" t="s">
-        <v>693</v>
+        <v>282</v>
       </c>
       <c r="C335" t="s">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="D335" t="s">
         <v>520</v>
@@ -7628,13 +7625,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="C336" t="s">
-        <v>143</v>
+        <v>386</v>
       </c>
       <c r="D336" t="s">
         <v>520</v>
@@ -7642,13 +7639,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>695</v>
+        <v>139</v>
       </c>
       <c r="B337" t="s">
-        <v>282</v>
+        <v>697</v>
       </c>
       <c r="C337" t="s">
-        <v>319</v>
+        <v>32</v>
       </c>
       <c r="D337" t="s">
         <v>520</v>
@@ -7656,13 +7653,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B338" t="s">
-        <v>292</v>
+        <v>699</v>
       </c>
       <c r="C338" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
       <c r="D338" t="s">
         <v>520</v>
@@ -7670,13 +7667,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>139</v>
+        <v>700</v>
       </c>
       <c r="B339" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C339" t="s">
-        <v>32</v>
+        <v>702</v>
       </c>
       <c r="D339" t="s">
         <v>520</v>
@@ -7684,13 +7681,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B340" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C340" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D340" t="s">
         <v>520</v>
@@ -7698,13 +7695,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>700</v>
+        <v>73</v>
       </c>
       <c r="B341" t="s">
-        <v>701</v>
+        <v>74</v>
       </c>
       <c r="C341" t="s">
-        <v>702</v>
+        <v>71</v>
       </c>
       <c r="D341" t="s">
         <v>520</v>
@@ -7712,13 +7709,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B342" t="s">
-        <v>704</v>
+        <v>248</v>
       </c>
       <c r="C342" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="D342" t="s">
         <v>520</v>
@@ -7726,13 +7723,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>73</v>
+        <v>706</v>
       </c>
       <c r="B343" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D343" t="s">
         <v>520</v>
@@ -7740,13 +7737,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B344" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="C344" t="s">
-        <v>382</v>
+        <v>15</v>
       </c>
       <c r="D344" t="s">
         <v>520</v>
@@ -7754,13 +7751,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>709</v>
       </c>
       <c r="C345" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="D345" t="s">
         <v>520</v>
@@ -7768,13 +7765,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B346" t="s">
-        <v>71</v>
+        <v>682</v>
       </c>
       <c r="C346" t="s">
-        <v>15</v>
+        <v>539</v>
       </c>
       <c r="D346" t="s">
         <v>520</v>
@@ -7782,77 +7779,77 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B347" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C347" t="s">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="D347" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>710</v>
-      </c>
-      <c r="B348" t="s">
-        <v>682</v>
-      </c>
-      <c r="C348" t="s">
-        <v>539</v>
-      </c>
-      <c r="D348" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>711</v>
-      </c>
-      <c r="B349" t="s">
-        <v>712</v>
-      </c>
-      <c r="C349" t="s">
-        <v>86</v>
-      </c>
-      <c r="D349" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="8" t="s">
+    <row r="349" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="B351" s="9"/>
-      <c r="C351" s="9"/>
-      <c r="D351" s="10"/>
-    </row>
-    <row r="352" spans="1:4" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B352" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C352" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D352" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="9"/>
+      <c r="C349" s="9"/>
+      <c r="D349" s="10"/>
+    </row>
+    <row r="350" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>713</v>
+      </c>
+      <c r="B350" t="s">
+        <v>597</v>
+      </c>
+      <c r="C350" t="s">
+        <v>12</v>
+      </c>
+      <c r="D350" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>715</v>
+      </c>
+      <c r="B351" t="s">
+        <v>319</v>
+      </c>
+      <c r="C351" t="s">
+        <v>716</v>
+      </c>
+      <c r="D351" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>717</v>
+      </c>
+      <c r="B352" t="s">
+        <v>112</v>
+      </c>
+      <c r="C352" t="s">
+        <v>103</v>
+      </c>
+      <c r="D352" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B353" t="s">
-        <v>597</v>
+        <v>546</v>
       </c>
       <c r="C353" t="s">
-        <v>12</v>
+        <v>414</v>
       </c>
       <c r="D353" t="s">
         <v>714</v>
@@ -7860,13 +7857,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B354" t="s">
-        <v>319</v>
+        <v>720</v>
       </c>
       <c r="C354" t="s">
-        <v>716</v>
+        <v>265</v>
       </c>
       <c r="D354" t="s">
         <v>714</v>
@@ -7874,13 +7871,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B355" t="s">
-        <v>112</v>
-      </c>
-      <c r="C355" t="s">
-        <v>103</v>
+        <v>356</v>
       </c>
       <c r="D355" t="s">
         <v>714</v>
@@ -7888,13 +7882,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B356" t="s">
-        <v>546</v>
+        <v>723</v>
       </c>
       <c r="C356" t="s">
-        <v>414</v>
+        <v>265</v>
       </c>
       <c r="D356" t="s">
         <v>714</v>
@@ -7902,13 +7896,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="B357" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C357" t="s">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="D357" t="s">
         <v>714</v>
@@ -7916,10 +7910,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B358" t="s">
-        <v>356</v>
+        <v>368</v>
+      </c>
+      <c r="C358" t="s">
+        <v>86</v>
       </c>
       <c r="D358" t="s">
         <v>714</v>
@@ -7927,13 +7924,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B359" t="s">
-        <v>723</v>
+        <v>382</v>
       </c>
       <c r="C359" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="D359" t="s">
         <v>714</v>
@@ -7941,13 +7938,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B360" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C360" t="s">
-        <v>116</v>
+        <v>450</v>
       </c>
       <c r="D360" t="s">
         <v>714</v>
@@ -7955,13 +7952,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B361" t="s">
-        <v>368</v>
+        <v>731</v>
       </c>
       <c r="C361" t="s">
-        <v>86</v>
+        <v>732</v>
       </c>
       <c r="D361" t="s">
         <v>714</v>
@@ -7969,13 +7966,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>727</v>
+        <v>564</v>
       </c>
       <c r="B362" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C362" t="s">
-        <v>71</v>
+        <v>733</v>
       </c>
       <c r="D362" t="s">
         <v>714</v>
@@ -7983,13 +7980,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B363" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C363" t="s">
-        <v>450</v>
+        <v>736</v>
       </c>
       <c r="D363" t="s">
         <v>714</v>
@@ -7997,13 +7994,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>730</v>
+        <v>537</v>
       </c>
       <c r="B364" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C364" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="D364" t="s">
         <v>714</v>
@@ -8011,27 +8008,27 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>564</v>
+        <v>739</v>
       </c>
       <c r="B365" t="s">
-        <v>388</v>
+        <v>740</v>
       </c>
       <c r="C365" t="s">
-        <v>733</v>
-      </c>
-      <c r="D365" t="s">
-        <v>714</v>
+        <v>265</v>
+      </c>
+      <c r="D365" s="11">
+        <v>2252</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B366" t="s">
-        <v>735</v>
+        <v>467</v>
       </c>
       <c r="C366" t="s">
-        <v>736</v>
+        <v>202</v>
       </c>
       <c r="D366" t="s">
         <v>714</v>
@@ -8039,13 +8036,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>537</v>
+        <v>742</v>
       </c>
       <c r="B367" t="s">
-        <v>737</v>
+        <v>382</v>
       </c>
       <c r="C367" t="s">
-        <v>738</v>
+        <v>25</v>
       </c>
       <c r="D367" t="s">
         <v>714</v>
@@ -8053,27 +8050,24 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B368" t="s">
-        <v>740</v>
-      </c>
-      <c r="C368" t="s">
-        <v>265</v>
-      </c>
-      <c r="D368" s="13">
-        <v>2252</v>
+        <v>744</v>
+      </c>
+      <c r="D368" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B369" t="s">
-        <v>467</v>
+        <v>746</v>
       </c>
       <c r="C369" t="s">
-        <v>202</v>
+        <v>584</v>
       </c>
       <c r="D369" t="s">
         <v>714</v>
@@ -8081,13 +8075,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B370" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
       <c r="C370" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D370" t="s">
         <v>714</v>
@@ -8095,10 +8089,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B371" t="s">
-        <v>744</v>
+        <v>749</v>
+      </c>
+      <c r="C371" t="s">
+        <v>750</v>
       </c>
       <c r="D371" t="s">
         <v>714</v>
@@ -8106,13 +8103,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="B372" t="s">
-        <v>746</v>
-      </c>
-      <c r="C372" t="s">
-        <v>584</v>
+        <v>752</v>
       </c>
       <c r="D372" t="s">
         <v>714</v>
@@ -8120,13 +8114,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="B373" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C373" t="s">
-        <v>143</v>
+        <v>339</v>
       </c>
       <c r="D373" t="s">
         <v>714</v>
@@ -8134,13 +8128,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="B374" t="s">
-        <v>749</v>
-      </c>
-      <c r="C374" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="D374" t="s">
         <v>714</v>
@@ -8148,10 +8139,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B375" t="s">
-        <v>752</v>
+        <v>757</v>
+      </c>
+      <c r="C375" t="s">
+        <v>758</v>
       </c>
       <c r="D375" t="s">
         <v>714</v>
@@ -8159,13 +8153,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B376" t="s">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="C376" t="s">
-        <v>339</v>
+        <v>760</v>
       </c>
       <c r="D376" t="s">
         <v>714</v>
@@ -8173,10 +8167,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="B377" t="s">
-        <v>755</v>
+        <v>439</v>
+      </c>
+      <c r="C377" t="s">
+        <v>79</v>
       </c>
       <c r="D377" t="s">
         <v>714</v>
@@ -8184,13 +8181,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B378" t="s">
-        <v>757</v>
+        <v>502</v>
       </c>
       <c r="C378" t="s">
-        <v>758</v>
+        <v>73</v>
       </c>
       <c r="D378" t="s">
         <v>714</v>
@@ -8198,13 +8195,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B379" t="s">
-        <v>443</v>
+        <v>106</v>
       </c>
       <c r="C379" t="s">
-        <v>760</v>
+        <v>382</v>
       </c>
       <c r="D379" t="s">
         <v>714</v>
@@ -8212,13 +8209,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B380" t="s">
-        <v>439</v>
+        <v>313</v>
       </c>
       <c r="C380" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="D380" t="s">
         <v>714</v>
@@ -8226,13 +8223,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B381" t="s">
-        <v>502</v>
+        <v>157</v>
       </c>
       <c r="C381" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="D381" t="s">
         <v>714</v>
@@ -8240,13 +8237,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>763</v>
+        <v>406</v>
       </c>
       <c r="B382" t="s">
-        <v>106</v>
+        <v>766</v>
       </c>
       <c r="C382" t="s">
-        <v>382</v>
+        <v>767</v>
       </c>
       <c r="D382" t="s">
         <v>714</v>
@@ -8254,13 +8251,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B383" t="s">
-        <v>313</v>
+        <v>143</v>
       </c>
       <c r="C383" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D383" t="s">
         <v>714</v>
@@ -8268,13 +8265,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B384" t="s">
-        <v>157</v>
+        <v>770</v>
       </c>
       <c r="C384" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="D384" t="s">
         <v>714</v>
@@ -8282,13 +8279,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>406</v>
+        <v>771</v>
       </c>
       <c r="B385" t="s">
-        <v>766</v>
+        <v>71</v>
       </c>
       <c r="C385" t="s">
-        <v>767</v>
+        <v>158</v>
       </c>
       <c r="D385" t="s">
         <v>714</v>
@@ -8296,13 +8293,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B386" t="s">
-        <v>143</v>
+        <v>773</v>
       </c>
       <c r="C386" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="D386" t="s">
         <v>714</v>
@@ -8310,13 +8307,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="B387" t="s">
-        <v>770</v>
+        <v>628</v>
       </c>
       <c r="C387" t="s">
-        <v>202</v>
+        <v>775</v>
       </c>
       <c r="D387" t="s">
         <v>714</v>
@@ -8324,13 +8321,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B388" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C388" t="s">
-        <v>158</v>
+        <v>777</v>
       </c>
       <c r="D388" t="s">
         <v>714</v>
@@ -8338,13 +8335,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="B389" t="s">
-        <v>773</v>
+        <v>172</v>
       </c>
       <c r="C389" t="s">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c r="D389" t="s">
         <v>714</v>
@@ -8352,13 +8349,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B390" t="s">
-        <v>628</v>
+        <v>163</v>
       </c>
       <c r="C390" t="s">
-        <v>775</v>
+        <v>645</v>
       </c>
       <c r="D390" t="s">
         <v>714</v>
@@ -8366,13 +8363,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B391" t="s">
-        <v>47</v>
+        <v>781</v>
       </c>
       <c r="C391" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D391" t="s">
         <v>714</v>
@@ -8380,13 +8377,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>778</v>
+        <v>36</v>
       </c>
       <c r="B392" t="s">
-        <v>172</v>
+        <v>783</v>
       </c>
       <c r="C392" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="D392" t="s">
         <v>714</v>
@@ -8394,13 +8391,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B393" t="s">
-        <v>163</v>
-      </c>
-      <c r="C393" t="s">
-        <v>645</v>
+        <v>785</v>
       </c>
       <c r="D393" t="s">
         <v>714</v>
@@ -8408,13 +8402,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>780</v>
+        <v>612</v>
       </c>
       <c r="B394" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C394" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D394" t="s">
         <v>714</v>
@@ -8422,13 +8416,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>36</v>
+        <v>612</v>
       </c>
       <c r="B395" t="s">
-        <v>783</v>
+        <v>404</v>
       </c>
       <c r="C395" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="D395" t="s">
         <v>714</v>
@@ -8436,24 +8430,27 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B396" t="s">
-        <v>785</v>
-      </c>
-      <c r="D396" t="s">
-        <v>714</v>
+        <v>789</v>
+      </c>
+      <c r="C396" t="s">
+        <v>790</v>
+      </c>
+      <c r="D396" s="11">
+        <v>2252</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>612</v>
+        <v>791</v>
       </c>
       <c r="B397" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C397" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="D397" t="s">
         <v>714</v>
@@ -8461,13 +8458,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>612</v>
+        <v>794</v>
       </c>
       <c r="B398" t="s">
-        <v>404</v>
+        <v>795</v>
       </c>
       <c r="C398" t="s">
-        <v>57</v>
+        <v>796</v>
       </c>
       <c r="D398" t="s">
         <v>714</v>
@@ -8475,27 +8472,27 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B399" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="C399" t="s">
-        <v>790</v>
-      </c>
-      <c r="D399" s="13">
-        <v>2252</v>
+        <v>799</v>
+      </c>
+      <c r="D399" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="B400" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C400" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="D400" t="s">
         <v>714</v>
@@ -8503,13 +8500,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="B401" t="s">
-        <v>795</v>
+        <v>752</v>
       </c>
       <c r="C401" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="D401" t="s">
         <v>714</v>
@@ -8517,13 +8514,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="B402" t="s">
-        <v>798</v>
+        <v>422</v>
       </c>
       <c r="C402" t="s">
-        <v>799</v>
+        <v>319</v>
       </c>
       <c r="D402" t="s">
         <v>714</v>
@@ -8531,13 +8528,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="B403" t="s">
-        <v>801</v>
-      </c>
-      <c r="C403" t="s">
-        <v>802</v>
+        <v>96</v>
       </c>
       <c r="D403" t="s">
         <v>714</v>
@@ -8545,13 +8539,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>803</v>
+        <v>144</v>
       </c>
       <c r="B404" t="s">
-        <v>752</v>
+        <v>16</v>
       </c>
       <c r="C404" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D404" t="s">
         <v>714</v>
@@ -8559,13 +8553,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B405" t="s">
-        <v>422</v>
+        <v>157</v>
       </c>
       <c r="C405" t="s">
-        <v>319</v>
+        <v>619</v>
       </c>
       <c r="D405" t="s">
         <v>714</v>
@@ -8573,10 +8567,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B406" t="s">
-        <v>96</v>
+        <v>810</v>
+      </c>
+      <c r="C406" t="s">
+        <v>811</v>
       </c>
       <c r="D406" t="s">
         <v>714</v>
@@ -8584,13 +8581,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>144</v>
+        <v>812</v>
       </c>
       <c r="B407" t="s">
-        <v>16</v>
+        <v>402</v>
       </c>
       <c r="C407" t="s">
-        <v>807</v>
+        <v>24</v>
       </c>
       <c r="D407" t="s">
         <v>714</v>
@@ -8598,13 +8595,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B408" t="s">
-        <v>157</v>
+        <v>795</v>
       </c>
       <c r="C408" t="s">
-        <v>619</v>
+        <v>191</v>
       </c>
       <c r="D408" t="s">
         <v>714</v>
@@ -8612,13 +8609,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="B409" t="s">
-        <v>810</v>
+        <v>770</v>
       </c>
       <c r="C409" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D409" t="s">
         <v>714</v>
@@ -8626,13 +8623,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B410" t="s">
-        <v>402</v>
+        <v>817</v>
       </c>
       <c r="C410" t="s">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="D410" t="s">
         <v>714</v>
@@ -8640,13 +8637,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B411" t="s">
-        <v>795</v>
+        <v>97</v>
       </c>
       <c r="C411" t="s">
-        <v>191</v>
+        <v>819</v>
       </c>
       <c r="D411" t="s">
         <v>714</v>
@@ -8654,13 +8651,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B412" t="s">
-        <v>770</v>
+        <v>628</v>
       </c>
       <c r="C412" t="s">
-        <v>815</v>
+        <v>43</v>
       </c>
       <c r="D412" t="s">
         <v>714</v>
@@ -8668,13 +8665,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>816</v>
+        <v>31</v>
       </c>
       <c r="B413" t="s">
-        <v>817</v>
+        <v>204</v>
       </c>
       <c r="C413" t="s">
-        <v>263</v>
+        <v>821</v>
       </c>
       <c r="D413" t="s">
         <v>714</v>
@@ -8682,13 +8679,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B414" t="s">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="C414" t="s">
-        <v>819</v>
+        <v>25</v>
       </c>
       <c r="D414" t="s">
         <v>714</v>
@@ -8696,13 +8693,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B415" t="s">
-        <v>628</v>
+        <v>824</v>
       </c>
       <c r="C415" t="s">
-        <v>43</v>
+        <v>825</v>
       </c>
       <c r="D415" t="s">
         <v>714</v>
@@ -8710,13 +8707,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>31</v>
+        <v>826</v>
       </c>
       <c r="B416" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="C416" t="s">
-        <v>821</v>
+        <v>386</v>
       </c>
       <c r="D416" t="s">
         <v>714</v>
@@ -8724,13 +8721,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="B417" t="s">
-        <v>382</v>
+        <v>828</v>
       </c>
       <c r="C417" t="s">
-        <v>25</v>
+        <v>829</v>
       </c>
       <c r="D417" t="s">
         <v>714</v>
@@ -8738,13 +8735,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B418" t="s">
-        <v>824</v>
+        <v>766</v>
       </c>
       <c r="C418" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="D418" t="s">
         <v>714</v>
@@ -8752,13 +8749,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B419" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="C419" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="D419" t="s">
         <v>714</v>
@@ -8766,13 +8763,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>827</v>
+        <v>444</v>
       </c>
       <c r="B420" t="s">
-        <v>828</v>
+        <v>672</v>
       </c>
       <c r="C420" t="s">
-        <v>829</v>
+        <v>338</v>
       </c>
       <c r="D420" t="s">
         <v>714</v>
@@ -8780,13 +8777,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B421" t="s">
-        <v>766</v>
+        <v>834</v>
       </c>
       <c r="C421" t="s">
-        <v>831</v>
+        <v>86</v>
       </c>
       <c r="D421" t="s">
         <v>714</v>
@@ -8794,13 +8791,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B422" t="s">
-        <v>327</v>
+        <v>41</v>
       </c>
       <c r="C422" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="D422" t="s">
         <v>714</v>
@@ -8808,13 +8805,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>444</v>
+        <v>836</v>
       </c>
       <c r="B423" t="s">
-        <v>672</v>
+        <v>207</v>
       </c>
       <c r="C423" t="s">
-        <v>338</v>
+        <v>85</v>
       </c>
       <c r="D423" t="s">
         <v>714</v>
@@ -8822,13 +8819,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B424" t="s">
-        <v>834</v>
+        <v>127</v>
       </c>
       <c r="C424" t="s">
-        <v>86</v>
+        <v>838</v>
       </c>
       <c r="D424" t="s">
         <v>714</v>
@@ -8836,13 +8833,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B425" t="s">
-        <v>41</v>
+        <v>443</v>
       </c>
       <c r="C425" t="s">
-        <v>100</v>
+        <v>418</v>
       </c>
       <c r="D425" t="s">
         <v>714</v>
@@ -8850,13 +8847,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B426" t="s">
-        <v>207</v>
+        <v>682</v>
       </c>
       <c r="C426" t="s">
-        <v>85</v>
+        <v>841</v>
       </c>
       <c r="D426" t="s">
         <v>714</v>
@@ -8864,13 +8861,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>837</v>
+        <v>544</v>
       </c>
       <c r="B427" t="s">
-        <v>127</v>
+        <v>436</v>
       </c>
       <c r="C427" t="s">
-        <v>838</v>
+        <v>339</v>
       </c>
       <c r="D427" t="s">
         <v>714</v>
@@ -8878,13 +8875,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>839</v>
+        <v>478</v>
       </c>
       <c r="B428" t="s">
-        <v>443</v>
+        <v>842</v>
       </c>
       <c r="C428" t="s">
-        <v>418</v>
+        <v>552</v>
       </c>
       <c r="D428" t="s">
         <v>714</v>
@@ -8892,13 +8889,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B429" t="s">
-        <v>682</v>
+        <v>844</v>
       </c>
       <c r="C429" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D429" t="s">
         <v>714</v>
@@ -8906,13 +8903,13 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>544</v>
+        <v>846</v>
       </c>
       <c r="B430" t="s">
-        <v>436</v>
+        <v>847</v>
       </c>
       <c r="C430" t="s">
-        <v>339</v>
+        <v>202</v>
       </c>
       <c r="D430" t="s">
         <v>714</v>
@@ -8920,13 +8917,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>478</v>
+        <v>848</v>
       </c>
       <c r="B431" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="C431" t="s">
-        <v>552</v>
+        <v>850</v>
       </c>
       <c r="D431" t="s">
         <v>714</v>
@@ -8934,13 +8931,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="B432" t="s">
-        <v>844</v>
+        <v>76</v>
       </c>
       <c r="C432" t="s">
-        <v>845</v>
+        <v>237</v>
       </c>
       <c r="D432" t="s">
         <v>714</v>
@@ -8948,13 +8945,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="B433" t="s">
-        <v>847</v>
+        <v>62</v>
       </c>
       <c r="C433" t="s">
-        <v>202</v>
+        <v>853</v>
       </c>
       <c r="D433" t="s">
         <v>714</v>
@@ -8962,13 +8959,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="B434" t="s">
-        <v>849</v>
+        <v>497</v>
       </c>
       <c r="C434" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D434" t="s">
         <v>714</v>
@@ -8976,13 +8973,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="B435" t="s">
-        <v>76</v>
+        <v>857</v>
       </c>
       <c r="C435" t="s">
-        <v>237</v>
+        <v>693</v>
       </c>
       <c r="D435" t="s">
         <v>714</v>
@@ -8990,13 +8987,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="B436" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C436" t="s">
-        <v>853</v>
+        <v>233</v>
       </c>
       <c r="D436" t="s">
         <v>714</v>
@@ -9004,13 +9001,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="B437" t="s">
-        <v>497</v>
+        <v>32</v>
       </c>
       <c r="C437" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D437" t="s">
         <v>714</v>
@@ -9018,13 +9015,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B438" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="C438" t="s">
-        <v>693</v>
+        <v>598</v>
       </c>
       <c r="D438" t="s">
         <v>714</v>
@@ -9032,13 +9029,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="B439" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="C439" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="D439" t="s">
         <v>714</v>
@@ -9046,13 +9043,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>859</v>
+        <v>73</v>
       </c>
       <c r="B440" t="s">
-        <v>32</v>
+        <v>864</v>
       </c>
       <c r="C440" t="s">
-        <v>860</v>
+        <v>191</v>
       </c>
       <c r="D440" t="s">
         <v>714</v>
@@ -9060,13 +9057,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>861</v>
+        <v>256</v>
       </c>
       <c r="B441" t="s">
-        <v>862</v>
+        <v>90</v>
       </c>
       <c r="C441" t="s">
-        <v>598</v>
+        <v>865</v>
       </c>
       <c r="D441" t="s">
         <v>714</v>
@@ -9074,13 +9071,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B442" t="s">
-        <v>404</v>
-      </c>
-      <c r="C442" t="s">
-        <v>16</v>
+        <v>867</v>
       </c>
       <c r="D442" t="s">
         <v>714</v>
@@ -9088,13 +9082,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>73</v>
+        <v>491</v>
       </c>
       <c r="B443" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C443" t="s">
-        <v>191</v>
+        <v>869</v>
       </c>
       <c r="D443" t="s">
         <v>714</v>
@@ -9102,13 +9096,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>256</v>
+        <v>870</v>
       </c>
       <c r="B444" t="s">
-        <v>90</v>
+        <v>871</v>
       </c>
       <c r="C444" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="D444" t="s">
         <v>714</v>
@@ -9116,10 +9110,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="B445" t="s">
-        <v>867</v>
+        <v>172</v>
+      </c>
+      <c r="C445" t="s">
+        <v>368</v>
       </c>
       <c r="D445" t="s">
         <v>714</v>
@@ -9127,13 +9124,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>491</v>
+        <v>874</v>
       </c>
       <c r="B446" t="s">
-        <v>868</v>
+        <v>502</v>
       </c>
       <c r="C446" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="D446" t="s">
         <v>714</v>
@@ -9141,13 +9138,13 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="B447" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C447" t="s">
-        <v>872</v>
+        <v>141</v>
       </c>
       <c r="D447" t="s">
         <v>714</v>
@@ -9155,13 +9152,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="B448" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="C448" t="s">
-        <v>368</v>
+        <v>879</v>
       </c>
       <c r="D448" t="s">
         <v>714</v>
@@ -9169,13 +9166,13 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="B449" t="s">
-        <v>502</v>
+        <v>881</v>
       </c>
       <c r="C449" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="D449" t="s">
         <v>714</v>
@@ -9183,13 +9180,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="B450" t="s">
-        <v>877</v>
+        <v>54</v>
       </c>
       <c r="C450" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D450" t="s">
         <v>714</v>
@@ -9197,13 +9194,13 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="B451" t="s">
-        <v>25</v>
+        <v>885</v>
       </c>
       <c r="C451" t="s">
-        <v>879</v>
+        <v>143</v>
       </c>
       <c r="D451" t="s">
         <v>714</v>
@@ -9211,13 +9208,13 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>880</v>
+        <v>281</v>
       </c>
       <c r="B452" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="C452" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="D452" t="s">
         <v>714</v>
@@ -9225,13 +9222,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B453" t="s">
-        <v>54</v>
+        <v>889</v>
       </c>
       <c r="C453" t="s">
-        <v>158</v>
+        <v>890</v>
       </c>
       <c r="D453" t="s">
         <v>714</v>
@@ -9239,57 +9236,15 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="B454" t="s">
-        <v>885</v>
+        <v>103</v>
       </c>
       <c r="C454" t="s">
-        <v>143</v>
+        <v>892</v>
       </c>
       <c r="D454" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>281</v>
-      </c>
-      <c r="B455" t="s">
-        <v>886</v>
-      </c>
-      <c r="C455" t="s">
-        <v>887</v>
-      </c>
-      <c r="D455" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>888</v>
-      </c>
-      <c r="B456" t="s">
-        <v>889</v>
-      </c>
-      <c r="C456" t="s">
-        <v>890</v>
-      </c>
-      <c r="D456" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>891</v>
-      </c>
-      <c r="B457" t="s">
-        <v>103</v>
-      </c>
-      <c r="C457" t="s">
-        <v>892</v>
-      </c>
-      <c r="D457" t="s">
         <v>714</v>
       </c>
     </row>
